--- a/static/Models/Regression/Equation/PSU Bank.xlsx
+++ b/static/Models/Regression/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.01508962363004684</v>
+        <v>0.01358788181096315</v>
       </c>
       <c r="C2">
-        <v>0.04269282147288322</v>
+        <v>0.04510826990008354</v>
       </c>
       <c r="D2">
-        <v>-0.1361971944570541</v>
+        <v>-0.1381115466356277</v>
       </c>
       <c r="E2">
-        <v>-0.02226549386978149</v>
+        <v>-0.02138183265924454</v>
       </c>
       <c r="F2">
-        <v>0.006624175701290369</v>
+        <v>0.00623017456382513</v>
       </c>
       <c r="G2">
-        <v>0.03152649104595184</v>
+        <v>0.03045914508402348</v>
       </c>
       <c r="H2">
-        <v>-0.0102594057098031</v>
+        <v>-0.0107307955622673</v>
       </c>
       <c r="I2">
-        <v>-0.01932868920266628</v>
+        <v>-0.01971186138689518</v>
       </c>
       <c r="J2">
-        <v>0.1338044553995132</v>
+        <v>0.1319747865200043</v>
       </c>
       <c r="K2">
-        <v>-0.0006113610579632223</v>
+        <v>1.917565896292217E-05</v>
       </c>
       <c r="L2">
-        <v>0.005331530701369047</v>
+        <v>0.007679725997149944</v>
       </c>
       <c r="M2">
-        <v>0.004074014257639647</v>
+        <v>0.003681671805679798</v>
       </c>
       <c r="N2">
-        <v>-0.001192072522826493</v>
+        <v>0.002557238098233938</v>
       </c>
       <c r="O2">
-        <v>0.1455911695957184</v>
+        <v>0.1451563388109207</v>
       </c>
       <c r="P2">
-        <v>-0.07061771303415298</v>
+        <v>-0.06716388463973999</v>
       </c>
       <c r="Q2">
-        <v>0.07053355872631073</v>
+        <v>0.06765960156917572</v>
       </c>
       <c r="R2">
-        <v>0.01378732733428478</v>
+        <v>0.01262300461530685</v>
       </c>
       <c r="S2">
-        <v>-0.03909905999898911</v>
+        <v>-0.03900029882788658</v>
       </c>
       <c r="T2">
-        <v>-0.1142482310533524</v>
+        <v>-0.1136468797922134</v>
       </c>
       <c r="U2">
-        <v>-0.08036023378372192</v>
+        <v>-0.08233295381069183</v>
       </c>
       <c r="V2">
-        <v>0.006104547064751387</v>
+        <v>0.008486929349601269</v>
       </c>
       <c r="W2">
-        <v>-0.1165248900651932</v>
+        <v>-0.1166607216000557</v>
       </c>
       <c r="X2">
-        <v>-8.16188839962706E-05</v>
+        <v>0.0002190213999710977</v>
       </c>
       <c r="Y2">
-        <v>0.2193491458892822</v>
+        <v>0.2157125174999237</v>
       </c>
       <c r="Z2">
-        <v>0.1056887209415436</v>
+        <v>0.1061026751995087</v>
       </c>
       <c r="AA2">
-        <v>-0.003948837053030729</v>
+        <v>-0.003365714102983475</v>
       </c>
       <c r="AB2">
-        <v>-0.02534281462430954</v>
+        <v>-0.02317231707274914</v>
       </c>
       <c r="AC2">
-        <v>0.003353870008140802</v>
+        <v>0.003642461728304625</v>
       </c>
       <c r="AD2">
-        <v>-0.09962880611419678</v>
+        <v>-0.09949370473623276</v>
       </c>
       <c r="AE2">
-        <v>0.04975752905011177</v>
+        <v>0.05345658585429192</v>
       </c>
       <c r="AF2">
-        <v>0.01513430941849947</v>
+        <v>0.01263124961405993</v>
       </c>
       <c r="AG2">
-        <v>-0.3179945647716522</v>
+        <v>-0.3174197375774384</v>
       </c>
       <c r="AH2">
-        <v>-0.4088249504566193</v>
+        <v>-0.4087236523628235</v>
       </c>
       <c r="AI2">
-        <v>-0.0288066491484642</v>
+        <v>-0.03121592663228512</v>
       </c>
       <c r="AJ2">
-        <v>-0.004084678366780281</v>
+        <v>-0.002930393908172846</v>
       </c>
       <c r="AK2">
-        <v>0.007490691728889942</v>
+        <v>0.005004921928048134</v>
       </c>
       <c r="AL2">
-        <v>0.005955465137958527</v>
+        <v>0.007446129806339741</v>
       </c>
       <c r="AM2">
-        <v>-0.17459337413311</v>
+        <v>-0.1740410178899765</v>
       </c>
       <c r="AN2">
-        <v>-0.1532947719097137</v>
+        <v>-0.1537968069314957</v>
       </c>
       <c r="AO2">
-        <v>-0.06529825925827026</v>
+        <v>-0.06519970297813416</v>
       </c>
       <c r="AP2">
-        <v>-0.0160006508231163</v>
+        <v>-0.01667430438101292</v>
       </c>
       <c r="AQ2">
-        <v>-0.006820465438067913</v>
+        <v>-0.01353366766124964</v>
       </c>
       <c r="AR2">
-        <v>0.1758827567100525</v>
+        <v>0.178481861948967</v>
       </c>
       <c r="AS2">
-        <v>-0.1002298146486282</v>
+        <v>-0.1006756871938705</v>
       </c>
       <c r="AT2">
-        <v>0.09294746816158295</v>
+        <v>0.09494922310113907</v>
       </c>
       <c r="AU2">
-        <v>-0.01976429112255573</v>
+        <v>-0.02062860503792763</v>
       </c>
       <c r="AV2">
-        <v>0.04217340052127838</v>
+        <v>0.04177369549870491</v>
       </c>
       <c r="AW2">
-        <v>-0.01080667600035667</v>
+        <v>-0.0120125450193882</v>
       </c>
       <c r="AX2">
-        <v>-0.1044435203075409</v>
+        <v>-0.1001536250114441</v>
       </c>
       <c r="AY2">
-        <v>-0.04001969844102859</v>
+        <v>-0.03780883178114891</v>
       </c>
       <c r="AZ2">
-        <v>-0.02099527232348919</v>
+        <v>-0.02118262648582458</v>
       </c>
       <c r="BA2">
-        <v>-0.09703730046749115</v>
+        <v>-0.09424959123134613</v>
       </c>
       <c r="BB2">
-        <v>-0.1684212684631348</v>
+        <v>-0.1729704290628433</v>
       </c>
       <c r="BC2">
-        <v>0.002559588989242911</v>
+        <v>0.002758609829470515</v>
       </c>
       <c r="BD2">
-        <v>-0.007325033191591501</v>
+        <v>-0.007341007702052593</v>
       </c>
       <c r="BE2">
-        <v>-0.01264570094645023</v>
+        <v>-0.01378059387207031</v>
       </c>
       <c r="BF2">
-        <v>-0.09063113480806351</v>
+        <v>-0.09544433653354645</v>
       </c>
       <c r="BG2">
-        <v>-0.08657263219356537</v>
+        <v>-0.08663666248321533</v>
       </c>
       <c r="BH2">
-        <v>-0.0001463788939872757</v>
+        <v>-0.007754157297313213</v>
       </c>
       <c r="BI2">
-        <v>0.02559332363307476</v>
+        <v>0.02554387412965298</v>
       </c>
       <c r="BJ2">
-        <v>-0.04909142106771469</v>
+        <v>-0.0482993945479393</v>
       </c>
       <c r="BK2">
-        <v>-0.01106353104114532</v>
+        <v>-0.003054456319659948</v>
       </c>
       <c r="BL2">
-        <v>0.04030782729387283</v>
+        <v>0.03917038068175316</v>
       </c>
       <c r="BM2">
-        <v>0.1115517690777779</v>
+        <v>0.1104212775826454</v>
       </c>
       <c r="BN2">
-        <v>-0.05518386140465736</v>
+        <v>-0.05244126543402672</v>
       </c>
       <c r="BO2">
-        <v>0.05999968200922012</v>
+        <v>0.06324589252471924</v>
       </c>
       <c r="BP2">
-        <v>0.008560727350413799</v>
+        <v>0.01150185149163008</v>
       </c>
       <c r="BQ2">
-        <v>-0.08759051561355591</v>
+        <v>-0.09168899804353714</v>
       </c>
       <c r="BR2">
-        <v>-0.008704954758286476</v>
+        <v>-0.009983128868043423</v>
       </c>
       <c r="BS2">
-        <v>-0.003356401808559895</v>
+        <v>-0.0008778047631494701</v>
       </c>
       <c r="BT2">
-        <v>0.003588153515011072</v>
+        <v>0.003126391908153892</v>
       </c>
       <c r="BU2">
-        <v>0.02294240705668926</v>
+        <v>0.02311825565993786</v>
       </c>
       <c r="BV2">
-        <v>-0.1525690704584122</v>
+        <v>-0.1531616896390915</v>
       </c>
       <c r="BW2">
-        <v>0.01099290233105421</v>
+        <v>0.01463395263999701</v>
       </c>
       <c r="BX2">
-        <v>-0.02376466058194637</v>
+        <v>-0.0250211339443922</v>
       </c>
       <c r="BY2">
-        <v>-0.01789084076881409</v>
+        <v>-0.01623284444212914</v>
       </c>
       <c r="BZ2">
-        <v>0.1268714666366577</v>
+        <v>0.1268030256032944</v>
       </c>
       <c r="CA2">
-        <v>0.01049402914941311</v>
+        <v>0.01077902130782604</v>
       </c>
       <c r="CB2">
-        <v>-0.004476406145840883</v>
+        <v>-0.004706715699285269</v>
       </c>
       <c r="CC2">
-        <v>-0.006456096656620502</v>
+        <v>-0.006655828095972538</v>
       </c>
       <c r="CD2">
-        <v>-0.006733698304742575</v>
+        <v>-0.006729533430188894</v>
       </c>
       <c r="CE2">
-        <v>-0.2277228832244873</v>
+        <v>-0.2284063547849655</v>
       </c>
       <c r="CF2">
-        <v>-0.04171238839626312</v>
+        <v>-0.04442593455314636</v>
       </c>
       <c r="CG2">
-        <v>-0.2589764297008514</v>
+        <v>-0.2573652863502502</v>
       </c>
       <c r="CH2">
-        <v>0.001905926968902349</v>
+        <v>0.0009533080155961215</v>
       </c>
       <c r="CI2">
-        <v>0.1116716414690018</v>
+        <v>0.1119358092546463</v>
       </c>
       <c r="CJ2">
-        <v>-0.1079968959093094</v>
+        <v>-0.1080788150429726</v>
       </c>
       <c r="CK2">
-        <v>-0.01497549470514059</v>
+        <v>-0.01509307790547609</v>
       </c>
       <c r="CL2">
-        <v>0.0001179743485408835</v>
+        <v>-0.0001997990184463561</v>
       </c>
       <c r="CM2">
-        <v>0.06348549574613571</v>
+        <v>0.06275063753128052</v>
       </c>
       <c r="CN2">
-        <v>0.008205186575651169</v>
+        <v>0.005979082081466913</v>
       </c>
       <c r="CO2">
-        <v>-0.004884049762040377</v>
+        <v>-0.003714016871526837</v>
       </c>
       <c r="CP2">
-        <v>0.2500043511390686</v>
+        <v>0.2504611909389496</v>
       </c>
       <c r="CQ2">
-        <v>-0.1327873319387436</v>
+        <v>-0.1319379210472107</v>
       </c>
       <c r="CR2">
-        <v>0.009592868387699127</v>
+        <v>0.01205950882285833</v>
       </c>
       <c r="CS2">
-        <v>0.001358893467113376</v>
+        <v>0.001292196335271001</v>
       </c>
       <c r="CT2">
-        <v>0.01032652612775564</v>
+        <v>0.01013435982167721</v>
       </c>
       <c r="CU2">
-        <v>-0.01074117049574852</v>
+        <v>-0.003558448515832424</v>
       </c>
       <c r="CV2">
-        <v>0.004704341758042574</v>
+        <v>0.003548887791112065</v>
       </c>
       <c r="CW2">
-        <v>-0.01463882718235254</v>
+        <v>-0.01577596552670002</v>
       </c>
       <c r="CX2">
-        <v>-0.007837126031517982</v>
+        <v>-0.008036752231419086</v>
       </c>
       <c r="CY2">
-        <v>0.02765804156661034</v>
+        <v>0.02866095863282681</v>
       </c>
       <c r="CZ2">
-        <v>-0.003280595410615206</v>
+        <v>-0.002386968117207289</v>
       </c>
       <c r="DA2">
-        <v>-0.07581964135169983</v>
+        <v>-0.07760222256183624</v>
       </c>
       <c r="DB2">
-        <v>-0.08082955330610275</v>
+        <v>-0.08003245294094086</v>
       </c>
       <c r="DC2">
-        <v>-0.005975020583719015</v>
+        <v>-0.007333783432841301</v>
       </c>
       <c r="DD2">
-        <v>0.2219159454107285</v>
+        <v>0.2206691205501556</v>
       </c>
       <c r="DE2">
-        <v>0.006287056487053633</v>
+        <v>0.006481357850134373</v>
       </c>
       <c r="DF2">
-        <v>0.1263011395931244</v>
+        <v>0.124863438308239</v>
       </c>
       <c r="DG2">
-        <v>0.01101489085704088</v>
+        <v>0.004211449529975653</v>
       </c>
       <c r="DH2">
-        <v>-0.1060406342148781</v>
+        <v>-0.1054432988166809</v>
       </c>
       <c r="DI2">
-        <v>-0.01947500929236412</v>
+        <v>-0.01869102194905281</v>
       </c>
       <c r="DJ2">
-        <v>-0.07319732010364532</v>
+        <v>-0.0738300159573555</v>
       </c>
       <c r="DK2">
-        <v>-0.05132866650819778</v>
+        <v>-0.05261292308568954</v>
       </c>
       <c r="DL2">
-        <v>0.02019487135112286</v>
+        <v>0.02091739326715469</v>
       </c>
       <c r="DM2">
-        <v>0.0393063947558403</v>
+        <v>0.03958307951688766</v>
       </c>
       <c r="DN2">
-        <v>0.1159708052873611</v>
+        <v>0.1158574745059013</v>
       </c>
       <c r="DO2">
-        <v>0.04300400614738464</v>
+        <v>0.04535892605781555</v>
       </c>
       <c r="DP2">
-        <v>0.04450977593660355</v>
+        <v>0.04300803691148758</v>
       </c>
       <c r="DQ2">
-        <v>-0.005203926004469395</v>
+        <v>-0.004351786337792873</v>
       </c>
       <c r="DR2">
-        <v>-0.01810767874121666</v>
+        <v>-0.01749209128320217</v>
       </c>
       <c r="DS2">
-        <v>-0.2157043069601059</v>
+        <v>-0.2118507772684097</v>
       </c>
       <c r="DT2">
-        <v>-0.1152823194861412</v>
+        <v>-0.1128624081611633</v>
       </c>
       <c r="DU2">
-        <v>0.006179064512252808</v>
+        <v>0.005641707219183445</v>
       </c>
       <c r="DV2">
-        <v>0.003141717053949833</v>
+        <v>-0.001098283799365163</v>
       </c>
       <c r="DW2">
-        <v>0.009582795202732086</v>
+        <v>0.01001424621790648</v>
       </c>
       <c r="DX2">
-        <v>-0.04061089083552361</v>
+        <v>-0.04076924547553062</v>
       </c>
       <c r="DY2">
-        <v>0.03684023767709732</v>
+        <v>0.03603397309780121</v>
       </c>
       <c r="DZ2">
-        <v>-0.007739049848169088</v>
+        <v>-0.008516713976860046</v>
       </c>
       <c r="EA2">
-        <v>0.01605721935629845</v>
+        <v>0.01610525511205196</v>
       </c>
       <c r="EB2">
-        <v>-0.02816265635192394</v>
+        <v>-0.02795277535915375</v>
       </c>
       <c r="EC2">
-        <v>0.005678342655301094</v>
+        <v>0.002310370793566108</v>
       </c>
       <c r="ED2">
-        <v>0.03808438777923584</v>
+        <v>0.0387909933924675</v>
       </c>
       <c r="EE2">
-        <v>-0.03112195990979671</v>
+        <v>-0.03076036646962166</v>
       </c>
       <c r="EF2">
-        <v>0.1032875254750252</v>
+        <v>0.1039501950144768</v>
       </c>
       <c r="EG2">
-        <v>-0.07646466046571732</v>
+        <v>-0.07641813904047012</v>
       </c>
       <c r="EH2">
-        <v>-0.4131114184856415</v>
+        <v>-0.4149152636528015</v>
       </c>
       <c r="EI2">
-        <v>0.08806241303682327</v>
+        <v>0.0884895846247673</v>
       </c>
       <c r="EJ2">
-        <v>-0.1259294897317886</v>
+        <v>-0.1255650967359543</v>
       </c>
       <c r="EK2">
-        <v>-0.009465285576879978</v>
+        <v>-0.009166702628135681</v>
       </c>
       <c r="EL2">
-        <v>-0.004708159249275923</v>
+        <v>-0.003993174992501736</v>
       </c>
       <c r="EM2">
-        <v>-0.06175480782985687</v>
+        <v>-0.06112315878272057</v>
       </c>
       <c r="EN2">
-        <v>0.007409798912703991</v>
+        <v>0.00727990735322237</v>
       </c>
       <c r="EO2">
-        <v>-0.09125078469514847</v>
+        <v>-0.09002965688705444</v>
       </c>
       <c r="EP2">
-        <v>0.2008047103881836</v>
+        <v>0.2001339048147202</v>
       </c>
       <c r="EQ2">
-        <v>0.1222167164087296</v>
+        <v>0.1215959936380386</v>
       </c>
       <c r="ER2">
-        <v>-0.003842565463855863</v>
+        <v>-0.003926657605916262</v>
       </c>
       <c r="ES2">
-        <v>-0.07124654203653336</v>
+        <v>-0.07158542424440384</v>
       </c>
       <c r="ET2">
-        <v>-0.07981513440608978</v>
+        <v>-0.07769759744405746</v>
       </c>
       <c r="EU2">
-        <v>0.04703683406114578</v>
+        <v>0.04927688837051392</v>
       </c>
       <c r="EV2">
-        <v>0.1394404023885727</v>
+        <v>0.1408341825008392</v>
       </c>
       <c r="EW2">
-        <v>0.04384655505418777</v>
+        <v>0.04172300919890404</v>
       </c>
       <c r="EX2">
-        <v>-0.1973007470369339</v>
+        <v>-0.1976566165685654</v>
       </c>
       <c r="EY2">
-        <v>-0.01915587298572063</v>
+        <v>-0.01910647377371788</v>
       </c>
       <c r="EZ2">
-        <v>-0.07457655668258667</v>
+        <v>-0.07558177411556244</v>
       </c>
       <c r="FA2">
-        <v>-0.003963200375437737</v>
+        <v>-0.005544972606003284</v>
       </c>
       <c r="FB2">
-        <v>0.00595944793894887</v>
+        <v>0.006573938298970461</v>
       </c>
       <c r="FC2">
-        <v>-0.1182645037770271</v>
+        <v>-0.1181618347764015</v>
       </c>
       <c r="FD2">
-        <v>-0.0138012608513236</v>
+        <v>-0.01292888820171356</v>
       </c>
       <c r="FE2">
-        <v>-0.1075778529047966</v>
+        <v>-0.104122556746006</v>
       </c>
       <c r="FF2">
-        <v>-0.2679495513439178</v>
+        <v>-0.2675375044345856</v>
       </c>
       <c r="FG2">
-        <v>-0.3807408809661865</v>
+        <v>-0.3823758363723755</v>
       </c>
       <c r="FH2">
-        <v>-0.006487732753157616</v>
+        <v>-0.006998632568866014</v>
       </c>
       <c r="FI2">
-        <v>0.0924924835562706</v>
+        <v>0.09658130258321762</v>
       </c>
       <c r="FJ2">
-        <v>0.06301272660493851</v>
+        <v>0.06388148665428162</v>
       </c>
       <c r="FK2">
-        <v>0.08999713510274887</v>
+        <v>0.09176241606473923</v>
       </c>
       <c r="FL2">
-        <v>0.03310531750321388</v>
+        <v>0.03441159054636955</v>
       </c>
       <c r="FM2">
-        <v>-0.007764591369777918</v>
+        <v>-0.006423007231205702</v>
       </c>
       <c r="FN2">
-        <v>-0.002159771742299199</v>
+        <v>-0.003257060423493385</v>
       </c>
       <c r="FO2">
-        <v>0.005906843580305576</v>
+        <v>0.007416976150125265</v>
       </c>
       <c r="FP2">
-        <v>0.01071856636554003</v>
+        <v>0.0077851926907897</v>
       </c>
       <c r="FQ2">
-        <v>0.0008512340136803687</v>
+        <v>0.001715766033157706</v>
       </c>
       <c r="FR2">
-        <v>0.01001658476889133</v>
+        <v>0.01057892106473446</v>
       </c>
       <c r="FS2">
-        <v>0.0008636542479507625</v>
+        <v>0.0006273004692047834</v>
       </c>
       <c r="FT2">
-        <v>-0.002307188464328647</v>
+        <v>-0.0007227049209177494</v>
       </c>
       <c r="FU2">
-        <v>0.04338490962982178</v>
+        <v>0.04392987862229347</v>
       </c>
       <c r="FV2">
-        <v>0.0133713036775589</v>
+        <v>0.01330844406038523</v>
       </c>
       <c r="FW2">
-        <v>0.003495396114885807</v>
+        <v>0.00328966393135488</v>
       </c>
       <c r="FX2">
-        <v>0.006010258570313454</v>
+        <v>0.006186654325574636</v>
       </c>
       <c r="FY2">
-        <v>3.885021214955486E-05</v>
+        <v>-0.00290964893065393</v>
       </c>
       <c r="FZ2">
-        <v>-0.008627245202660561</v>
+        <v>-0.00881922896951437</v>
       </c>
       <c r="GA2">
-        <v>-0.02249937877058983</v>
+        <v>-0.02218478731811047</v>
       </c>
       <c r="GB2">
-        <v>-0.002536309417337179</v>
+        <v>-0.003684661816805601</v>
       </c>
       <c r="GC2">
-        <v>-0.07648204267024994</v>
+        <v>-0.07855141162872314</v>
       </c>
       <c r="GD2">
-        <v>0.02225144393742085</v>
+        <v>0.02163306437432766</v>
       </c>
       <c r="GE2">
-        <v>0.007249779067933559</v>
+        <v>0.007985780015587807</v>
       </c>
       <c r="GF2">
-        <v>-0.03836499899625778</v>
+        <v>-0.04113603383302689</v>
       </c>
       <c r="GG2">
-        <v>-0.1426414996385574</v>
+        <v>-0.1443295925855637</v>
       </c>
       <c r="GH2">
-        <v>0.00639414181932807</v>
+        <v>0.005039243958890438</v>
       </c>
       <c r="GI2">
-        <v>-0.175679549574852</v>
+        <v>-0.1718941181898117</v>
       </c>
       <c r="GJ2">
-        <v>-0.009000782854855061</v>
+        <v>-0.008696542121469975</v>
       </c>
       <c r="GK2">
-        <v>-0.05928957462310791</v>
+        <v>-0.05993113294243813</v>
       </c>
       <c r="GL2">
-        <v>0.08860934525728226</v>
+        <v>0.08858715742826462</v>
       </c>
       <c r="GM2">
-        <v>-0.1806124299764633</v>
+        <v>-0.18002949655056</v>
       </c>
       <c r="GN2">
-        <v>-0.08673649281263351</v>
+        <v>-0.08872082084417343</v>
       </c>
       <c r="GO2">
-        <v>0.001616010442376137</v>
+        <v>0.00210454105399549</v>
       </c>
       <c r="GP2">
-        <v>0.01998980715870857</v>
+        <v>0.01928224973380566</v>
       </c>
       <c r="GQ2">
-        <v>-0.005573873408138752</v>
+        <v>-0.003554863622412086</v>
       </c>
       <c r="GR2">
-        <v>0.0008215159759856761</v>
+        <v>-0.0001574841007823125</v>
       </c>
       <c r="GS2">
-        <v>-0.1510206013917923</v>
+        <v>-0.1479867100715637</v>
       </c>
       <c r="GT2">
-        <v>-0.004263985436409712</v>
+        <v>0.0004761425079777837</v>
       </c>
       <c r="GU2">
-        <v>0.005710880737751722</v>
+        <v>0.004757322836667299</v>
       </c>
       <c r="GV2">
-        <v>-0.01368351187556982</v>
+        <v>-0.01318724639713764</v>
       </c>
       <c r="GW2">
-        <v>0.008533940650522709</v>
+        <v>0.01166888419538736</v>
       </c>
       <c r="GX2">
-        <v>0.0002462203847244382</v>
+        <v>-0.0006278860964812338</v>
       </c>
       <c r="GY2">
-        <v>0.02518307603895664</v>
+        <v>0.02508287690579891</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PSU Bank.xlsx
+++ b/static/Models/Regression/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.01358788181096315</v>
+        <v>0.01153897494077682</v>
       </c>
       <c r="C2">
-        <v>0.04510826990008354</v>
+        <v>0.0439736619591713</v>
       </c>
       <c r="D2">
-        <v>-0.1381115466356277</v>
+        <v>-0.1377357691526413</v>
       </c>
       <c r="E2">
-        <v>-0.02138183265924454</v>
+        <v>-0.02614264748990536</v>
       </c>
       <c r="F2">
-        <v>0.00623017456382513</v>
+        <v>0.0009461300214752555</v>
       </c>
       <c r="G2">
-        <v>0.03045914508402348</v>
+        <v>0.03159749507904053</v>
       </c>
       <c r="H2">
-        <v>-0.0107307955622673</v>
+        <v>-0.01235484797507524</v>
       </c>
       <c r="I2">
-        <v>-0.01971186138689518</v>
+        <v>-0.01901175640523434</v>
       </c>
       <c r="J2">
-        <v>0.1319747865200043</v>
+        <v>0.1293606907129288</v>
       </c>
       <c r="K2">
-        <v>1.917565896292217E-05</v>
+        <v>0.003237231634557247</v>
       </c>
       <c r="L2">
-        <v>0.007679725997149944</v>
+        <v>0.009827848523855209</v>
       </c>
       <c r="M2">
-        <v>0.003681671805679798</v>
+        <v>0.0003481401654426008</v>
       </c>
       <c r="N2">
-        <v>0.002557238098233938</v>
+        <v>0.0003442242741584778</v>
       </c>
       <c r="O2">
-        <v>0.1451563388109207</v>
+        <v>0.1428303569555283</v>
       </c>
       <c r="P2">
-        <v>-0.06716388463973999</v>
+        <v>-0.064744733273983</v>
       </c>
       <c r="Q2">
-        <v>0.06765960156917572</v>
+        <v>0.06595341861248016</v>
       </c>
       <c r="R2">
-        <v>0.01262300461530685</v>
+        <v>0.01625391654670238</v>
       </c>
       <c r="S2">
-        <v>-0.03900029882788658</v>
+        <v>-0.03907208517193794</v>
       </c>
       <c r="T2">
-        <v>-0.1136468797922134</v>
+        <v>-0.1134627163410187</v>
       </c>
       <c r="U2">
-        <v>-0.08233295381069183</v>
+        <v>-0.07899815589189529</v>
       </c>
       <c r="V2">
-        <v>0.008486929349601269</v>
+        <v>0.006413755472749472</v>
       </c>
       <c r="W2">
-        <v>-0.1166607216000557</v>
+        <v>-0.1188463568687439</v>
       </c>
       <c r="X2">
-        <v>0.0002190213999710977</v>
+        <v>0.003363986266776919</v>
       </c>
       <c r="Y2">
-        <v>0.2157125174999237</v>
+        <v>0.214877188205719</v>
       </c>
       <c r="Z2">
-        <v>0.1061026751995087</v>
+        <v>0.1030042842030525</v>
       </c>
       <c r="AA2">
-        <v>-0.003365714102983475</v>
+        <v>-0.002237220760434866</v>
       </c>
       <c r="AB2">
-        <v>-0.02317231707274914</v>
+        <v>-0.01988002471625805</v>
       </c>
       <c r="AC2">
-        <v>0.003642461728304625</v>
+        <v>0.002950439462438226</v>
       </c>
       <c r="AD2">
-        <v>-0.09949370473623276</v>
+        <v>-0.100957527756691</v>
       </c>
       <c r="AE2">
-        <v>0.05345658585429192</v>
+        <v>0.05731124058365822</v>
       </c>
       <c r="AF2">
-        <v>0.01263124961405993</v>
+        <v>0.003454789752140641</v>
       </c>
       <c r="AG2">
-        <v>-0.3174197375774384</v>
+        <v>-0.3207333087921143</v>
       </c>
       <c r="AH2">
-        <v>-0.4087236523628235</v>
+        <v>-0.4079739451408386</v>
       </c>
       <c r="AI2">
-        <v>-0.03121592663228512</v>
+        <v>-0.03726468235254288</v>
       </c>
       <c r="AJ2">
-        <v>-0.002930393908172846</v>
+        <v>0.005116990301758051</v>
       </c>
       <c r="AK2">
-        <v>0.005004921928048134</v>
+        <v>0.004010434728115797</v>
       </c>
       <c r="AL2">
-        <v>0.007446129806339741</v>
+        <v>0.007623187266290188</v>
       </c>
       <c r="AM2">
-        <v>-0.1740410178899765</v>
+        <v>-0.1693102419376373</v>
       </c>
       <c r="AN2">
-        <v>-0.1537968069314957</v>
+        <v>-0.148124635219574</v>
       </c>
       <c r="AO2">
-        <v>-0.06519970297813416</v>
+        <v>-0.06828770041465759</v>
       </c>
       <c r="AP2">
-        <v>-0.01667430438101292</v>
+        <v>-0.01722651720046997</v>
       </c>
       <c r="AQ2">
-        <v>-0.01353366766124964</v>
+        <v>-0.00520967785269022</v>
       </c>
       <c r="AR2">
-        <v>0.178481861948967</v>
+        <v>0.1759129464626312</v>
       </c>
       <c r="AS2">
-        <v>-0.1006756871938705</v>
+        <v>-0.09515198320150375</v>
       </c>
       <c r="AT2">
-        <v>0.09494922310113907</v>
+        <v>0.1021331250667572</v>
       </c>
       <c r="AU2">
-        <v>-0.02062860503792763</v>
+        <v>-0.0221425574272871</v>
       </c>
       <c r="AV2">
-        <v>0.04177369549870491</v>
+        <v>0.03925028443336487</v>
       </c>
       <c r="AW2">
-        <v>-0.0120125450193882</v>
+        <v>-0.01418952271342278</v>
       </c>
       <c r="AX2">
-        <v>-0.1001536250114441</v>
+        <v>-0.1049382612109184</v>
       </c>
       <c r="AY2">
-        <v>-0.03780883178114891</v>
+        <v>-0.03920413926243782</v>
       </c>
       <c r="AZ2">
-        <v>-0.02118262648582458</v>
+        <v>-0.02138999104499817</v>
       </c>
       <c r="BA2">
-        <v>-0.09424959123134613</v>
+        <v>-0.09710656106472015</v>
       </c>
       <c r="BB2">
-        <v>-0.1729704290628433</v>
+        <v>-0.173120841383934</v>
       </c>
       <c r="BC2">
-        <v>0.002758609829470515</v>
+        <v>3.329570972709917E-05</v>
       </c>
       <c r="BD2">
-        <v>-0.007341007702052593</v>
+        <v>-0.009159045293927193</v>
       </c>
       <c r="BE2">
-        <v>-0.01378059387207031</v>
+        <v>-0.004400435835123062</v>
       </c>
       <c r="BF2">
-        <v>-0.09544433653354645</v>
+        <v>-0.09705184400081635</v>
       </c>
       <c r="BG2">
-        <v>-0.08663666248321533</v>
+        <v>-0.0886833518743515</v>
       </c>
       <c r="BH2">
-        <v>-0.007754157297313213</v>
+        <v>-0.002841027453541756</v>
       </c>
       <c r="BI2">
-        <v>0.02554387412965298</v>
+        <v>0.0250734630972147</v>
       </c>
       <c r="BJ2">
-        <v>-0.0482993945479393</v>
+        <v>-0.03518619015812874</v>
       </c>
       <c r="BK2">
-        <v>-0.003054456319659948</v>
+        <v>-0.002009142655879259</v>
       </c>
       <c r="BL2">
-        <v>0.03917038068175316</v>
+        <v>0.03725341707468033</v>
       </c>
       <c r="BM2">
-        <v>0.1104212775826454</v>
+        <v>0.1077392250299454</v>
       </c>
       <c r="BN2">
-        <v>-0.05244126543402672</v>
+        <v>-0.04385162889957428</v>
       </c>
       <c r="BO2">
-        <v>0.06324589252471924</v>
+        <v>0.06406872719526291</v>
       </c>
       <c r="BP2">
-        <v>0.01150185149163008</v>
+        <v>0.01133476104587317</v>
       </c>
       <c r="BQ2">
-        <v>-0.09168899804353714</v>
+        <v>-0.09727885574102402</v>
       </c>
       <c r="BR2">
-        <v>-0.009983128868043423</v>
+        <v>-0.01815451495349407</v>
       </c>
       <c r="BS2">
-        <v>-0.0008778047631494701</v>
+        <v>-0.00163488183170557</v>
       </c>
       <c r="BT2">
-        <v>0.003126391908153892</v>
+        <v>0.003535341704264283</v>
       </c>
       <c r="BU2">
-        <v>0.02311825565993786</v>
+        <v>0.02098161913454533</v>
       </c>
       <c r="BV2">
-        <v>-0.1531616896390915</v>
+        <v>-0.1521338373422623</v>
       </c>
       <c r="BW2">
-        <v>0.01463395263999701</v>
+        <v>0.007076759357005358</v>
       </c>
       <c r="BX2">
-        <v>-0.0250211339443922</v>
+        <v>-0.02103826217353344</v>
       </c>
       <c r="BY2">
-        <v>-0.01623284444212914</v>
+        <v>-0.0124763110652566</v>
       </c>
       <c r="BZ2">
-        <v>0.1268030256032944</v>
+        <v>0.1264958828687668</v>
       </c>
       <c r="CA2">
-        <v>0.01077902130782604</v>
+        <v>0.008916544727981091</v>
       </c>
       <c r="CB2">
-        <v>-0.004706715699285269</v>
+        <v>-0.001392404199577868</v>
       </c>
       <c r="CC2">
-        <v>-0.006655828095972538</v>
+        <v>-0.008378876373171806</v>
       </c>
       <c r="CD2">
-        <v>-0.006729533430188894</v>
+        <v>-0.002359062666073442</v>
       </c>
       <c r="CE2">
-        <v>-0.2284063547849655</v>
+        <v>-0.231260359287262</v>
       </c>
       <c r="CF2">
-        <v>-0.04442593455314636</v>
+        <v>-0.04005144163966179</v>
       </c>
       <c r="CG2">
-        <v>-0.2573652863502502</v>
+        <v>-0.2602680623531342</v>
       </c>
       <c r="CH2">
-        <v>0.0009533080155961215</v>
+        <v>-0.0008035539649426937</v>
       </c>
       <c r="CI2">
-        <v>0.1119358092546463</v>
+        <v>0.1099416390061378</v>
       </c>
       <c r="CJ2">
-        <v>-0.1080788150429726</v>
+        <v>-0.1158093437552452</v>
       </c>
       <c r="CK2">
-        <v>-0.01509307790547609</v>
+        <v>-0.01636038348078728</v>
       </c>
       <c r="CL2">
-        <v>-0.0001997990184463561</v>
+        <v>0.001290492247790098</v>
       </c>
       <c r="CM2">
-        <v>0.06275063753128052</v>
+        <v>0.06292214244604111</v>
       </c>
       <c r="CN2">
-        <v>0.005979082081466913</v>
+        <v>0.004271930083632469</v>
       </c>
       <c r="CO2">
-        <v>-0.003714016871526837</v>
+        <v>-0.004779655952006578</v>
       </c>
       <c r="CP2">
-        <v>0.2504611909389496</v>
+        <v>0.2386840134859085</v>
       </c>
       <c r="CQ2">
-        <v>-0.1319379210472107</v>
+        <v>-0.1327798366546631</v>
       </c>
       <c r="CR2">
-        <v>0.01205950882285833</v>
+        <v>0.01134724728763103</v>
       </c>
       <c r="CS2">
-        <v>0.001292196335271001</v>
+        <v>0.0003082515031564981</v>
       </c>
       <c r="CT2">
-        <v>0.01013435982167721</v>
+        <v>0.00883110798895359</v>
       </c>
       <c r="CU2">
-        <v>-0.003558448515832424</v>
+        <v>-0.002108403481543064</v>
       </c>
       <c r="CV2">
-        <v>0.003548887791112065</v>
+        <v>0.003374841995537281</v>
       </c>
       <c r="CW2">
-        <v>-0.01577596552670002</v>
+        <v>-0.01739119924604893</v>
       </c>
       <c r="CX2">
-        <v>-0.008036752231419086</v>
+        <v>-0.006279156543314457</v>
       </c>
       <c r="CY2">
-        <v>0.02866095863282681</v>
+        <v>0.03133551031351089</v>
       </c>
       <c r="CZ2">
-        <v>-0.002386968117207289</v>
+        <v>-0.0004790964594576508</v>
       </c>
       <c r="DA2">
-        <v>-0.07760222256183624</v>
+        <v>-0.07536956667900085</v>
       </c>
       <c r="DB2">
-        <v>-0.08003245294094086</v>
+        <v>-0.07351004332304001</v>
       </c>
       <c r="DC2">
-        <v>-0.007333783432841301</v>
+        <v>-0.01356056984513998</v>
       </c>
       <c r="DD2">
-        <v>0.2206691205501556</v>
+        <v>0.2237107008695602</v>
       </c>
       <c r="DE2">
-        <v>0.006481357850134373</v>
+        <v>0.004182864911854267</v>
       </c>
       <c r="DF2">
-        <v>0.124863438308239</v>
+        <v>0.126930832862854</v>
       </c>
       <c r="DG2">
-        <v>0.004211449529975653</v>
+        <v>0.004305529873818159</v>
       </c>
       <c r="DH2">
-        <v>-0.1054432988166809</v>
+        <v>-0.10495525598526</v>
       </c>
       <c r="DI2">
-        <v>-0.01869102194905281</v>
+        <v>-0.01083593536168337</v>
       </c>
       <c r="DJ2">
-        <v>-0.0738300159573555</v>
+        <v>-0.07570058107376099</v>
       </c>
       <c r="DK2">
-        <v>-0.05261292308568954</v>
+        <v>-0.0536305196583271</v>
       </c>
       <c r="DL2">
-        <v>0.02091739326715469</v>
+        <v>0.02105832286179066</v>
       </c>
       <c r="DM2">
-        <v>0.03958307951688766</v>
+        <v>0.04255295917391777</v>
       </c>
       <c r="DN2">
-        <v>0.1158574745059013</v>
+        <v>0.1136900335550308</v>
       </c>
       <c r="DO2">
-        <v>0.04535892605781555</v>
+        <v>0.04896209016442299</v>
       </c>
       <c r="DP2">
-        <v>0.04300803691148758</v>
+        <v>0.04095913842320442</v>
       </c>
       <c r="DQ2">
-        <v>-0.004351786337792873</v>
+        <v>-0.004937207791954279</v>
       </c>
       <c r="DR2">
-        <v>-0.01749209128320217</v>
+        <v>-0.02369884960353374</v>
       </c>
       <c r="DS2">
-        <v>-0.2118507772684097</v>
+        <v>-0.2102090865373611</v>
       </c>
       <c r="DT2">
-        <v>-0.1128624081611633</v>
+        <v>-0.1021065935492516</v>
       </c>
       <c r="DU2">
-        <v>0.005641707219183445</v>
+        <v>0.01158927939832211</v>
       </c>
       <c r="DV2">
-        <v>-0.001098283799365163</v>
+        <v>0.005515685304999352</v>
       </c>
       <c r="DW2">
-        <v>0.01001424621790648</v>
+        <v>0.0007233813521452248</v>
       </c>
       <c r="DX2">
-        <v>-0.04076924547553062</v>
+        <v>-0.04298672825098038</v>
       </c>
       <c r="DY2">
-        <v>0.03603397309780121</v>
+        <v>0.03049909882247448</v>
       </c>
       <c r="DZ2">
-        <v>-0.008516713976860046</v>
+        <v>-0.008710729889571667</v>
       </c>
       <c r="EA2">
-        <v>0.01610525511205196</v>
+        <v>0.01089352183043957</v>
       </c>
       <c r="EB2">
-        <v>-0.02795277535915375</v>
+        <v>-0.0309585090726614</v>
       </c>
       <c r="EC2">
-        <v>0.002310370793566108</v>
+        <v>0.005348410457372665</v>
       </c>
       <c r="ED2">
-        <v>0.0387909933924675</v>
+        <v>0.03921979293227196</v>
       </c>
       <c r="EE2">
-        <v>-0.03076036646962166</v>
+        <v>-0.03372255712747574</v>
       </c>
       <c r="EF2">
-        <v>0.1039501950144768</v>
+        <v>0.09973376989364624</v>
       </c>
       <c r="EG2">
-        <v>-0.07641813904047012</v>
+        <v>-0.07222328335046768</v>
       </c>
       <c r="EH2">
-        <v>-0.4149152636528015</v>
+        <v>-0.4078278541564941</v>
       </c>
       <c r="EI2">
-        <v>0.0884895846247673</v>
+        <v>0.08789773285388947</v>
       </c>
       <c r="EJ2">
-        <v>-0.1255650967359543</v>
+        <v>-0.1366813778877258</v>
       </c>
       <c r="EK2">
-        <v>-0.009166702628135681</v>
+        <v>-0.008739391341805458</v>
       </c>
       <c r="EL2">
-        <v>-0.003993174992501736</v>
+        <v>-0.005535137839615345</v>
       </c>
       <c r="EM2">
-        <v>-0.06112315878272057</v>
+        <v>-0.06586634367704391</v>
       </c>
       <c r="EN2">
-        <v>0.00727990735322237</v>
+        <v>0.006792414002120495</v>
       </c>
       <c r="EO2">
-        <v>-0.09002965688705444</v>
+        <v>-0.08998233824968338</v>
       </c>
       <c r="EP2">
-        <v>0.2001339048147202</v>
+        <v>0.2011077702045441</v>
       </c>
       <c r="EQ2">
-        <v>0.1215959936380386</v>
+        <v>0.1143995523452759</v>
       </c>
       <c r="ER2">
-        <v>-0.003926657605916262</v>
+        <v>-0.005375037901103497</v>
       </c>
       <c r="ES2">
-        <v>-0.07158542424440384</v>
+        <v>-0.07188162952661514</v>
       </c>
       <c r="ET2">
-        <v>-0.07769759744405746</v>
+        <v>-0.07051359117031097</v>
       </c>
       <c r="EU2">
-        <v>0.04927688837051392</v>
+        <v>0.05588604509830475</v>
       </c>
       <c r="EV2">
-        <v>0.1408341825008392</v>
+        <v>0.1491361409425735</v>
       </c>
       <c r="EW2">
-        <v>0.04172300919890404</v>
+        <v>0.03678106144070625</v>
       </c>
       <c r="EX2">
-        <v>-0.1976566165685654</v>
+        <v>-0.1936579942703247</v>
       </c>
       <c r="EY2">
-        <v>-0.01910647377371788</v>
+        <v>-0.021420082077384</v>
       </c>
       <c r="EZ2">
-        <v>-0.07558177411556244</v>
+        <v>-0.08135128766298294</v>
       </c>
       <c r="FA2">
-        <v>-0.005544972606003284</v>
+        <v>0.0004471942083910108</v>
       </c>
       <c r="FB2">
-        <v>0.006573938298970461</v>
+        <v>0.005811610259115696</v>
       </c>
       <c r="FC2">
-        <v>-0.1181618347764015</v>
+        <v>-0.1167976781725883</v>
       </c>
       <c r="FD2">
-        <v>-0.01292888820171356</v>
+        <v>-0.01115348935127258</v>
       </c>
       <c r="FE2">
-        <v>-0.104122556746006</v>
+        <v>-0.1004380583763123</v>
       </c>
       <c r="FF2">
-        <v>-0.2675375044345856</v>
+        <v>-0.2703443467617035</v>
       </c>
       <c r="FG2">
-        <v>-0.3823758363723755</v>
+        <v>-0.3816609680652618</v>
       </c>
       <c r="FH2">
-        <v>-0.006998632568866014</v>
+        <v>-0.007959196344017982</v>
       </c>
       <c r="FI2">
-        <v>0.09658130258321762</v>
+        <v>0.09866190701723099</v>
       </c>
       <c r="FJ2">
-        <v>0.06388148665428162</v>
+        <v>0.06694109737873077</v>
       </c>
       <c r="FK2">
-        <v>0.09176241606473923</v>
+        <v>0.08354117721319199</v>
       </c>
       <c r="FL2">
-        <v>0.03441159054636955</v>
+        <v>0.0300716869533062</v>
       </c>
       <c r="FM2">
-        <v>-0.006423007231205702</v>
+        <v>-0.007721033878624439</v>
       </c>
       <c r="FN2">
-        <v>-0.003257060423493385</v>
+        <v>-0.001789243659004569</v>
       </c>
       <c r="FO2">
-        <v>0.007416976150125265</v>
+        <v>0.007316294591873884</v>
       </c>
       <c r="FP2">
-        <v>0.0077851926907897</v>
+        <v>0.01190370786935091</v>
       </c>
       <c r="FQ2">
-        <v>0.001715766033157706</v>
+        <v>0.0005694554420188069</v>
       </c>
       <c r="FR2">
-        <v>0.01057892106473446</v>
+        <v>0.009271477349102497</v>
       </c>
       <c r="FS2">
-        <v>0.0006273004692047834</v>
+        <v>-0.0006027870695106685</v>
       </c>
       <c r="FT2">
-        <v>-0.0007227049209177494</v>
+        <v>-0.0006818630499765277</v>
       </c>
       <c r="FU2">
-        <v>0.04392987862229347</v>
+        <v>0.04430113732814789</v>
       </c>
       <c r="FV2">
-        <v>0.01330844406038523</v>
+        <v>0.01163744740188122</v>
       </c>
       <c r="FW2">
-        <v>0.00328966393135488</v>
+        <v>0.002595979487523437</v>
       </c>
       <c r="FX2">
-        <v>0.006186654325574636</v>
+        <v>0.005706688854843378</v>
       </c>
       <c r="FY2">
-        <v>-0.00290964893065393</v>
+        <v>0.001543459482491016</v>
       </c>
       <c r="FZ2">
-        <v>-0.00881922896951437</v>
+        <v>-0.006933979224413633</v>
       </c>
       <c r="GA2">
-        <v>-0.02218478731811047</v>
+        <v>-0.02321025729179382</v>
       </c>
       <c r="GB2">
-        <v>-0.003684661816805601</v>
+        <v>0.004076353739947081</v>
       </c>
       <c r="GC2">
-        <v>-0.07855141162872314</v>
+        <v>-0.08348523825407028</v>
       </c>
       <c r="GD2">
-        <v>0.02163306437432766</v>
+        <v>0.02092652767896652</v>
       </c>
       <c r="GE2">
-        <v>0.007985780015587807</v>
+        <v>0.006680384743958712</v>
       </c>
       <c r="GF2">
-        <v>-0.04113603383302689</v>
+        <v>-0.03159098327159882</v>
       </c>
       <c r="GG2">
-        <v>-0.1443295925855637</v>
+        <v>-0.1410728543996811</v>
       </c>
       <c r="GH2">
-        <v>0.005039243958890438</v>
+        <v>-0.0008606133633293211</v>
       </c>
       <c r="GI2">
-        <v>-0.1718941181898117</v>
+        <v>-0.1752048283815384</v>
       </c>
       <c r="GJ2">
-        <v>-0.008696542121469975</v>
+        <v>-0.01809108629822731</v>
       </c>
       <c r="GK2">
-        <v>-0.05993113294243813</v>
+        <v>-0.06604208797216415</v>
       </c>
       <c r="GL2">
-        <v>0.08858715742826462</v>
+        <v>0.08333516120910645</v>
       </c>
       <c r="GM2">
-        <v>-0.18002949655056</v>
+        <v>-0.1899200081825256</v>
       </c>
       <c r="GN2">
-        <v>-0.08872082084417343</v>
+        <v>-0.08475163578987122</v>
       </c>
       <c r="GO2">
-        <v>0.00210454105399549</v>
+        <v>0.01093783229589462</v>
       </c>
       <c r="GP2">
-        <v>0.01928224973380566</v>
+        <v>0.01772405207157135</v>
       </c>
       <c r="GQ2">
-        <v>-0.003554863622412086</v>
+        <v>0.0004832236154470593</v>
       </c>
       <c r="GR2">
-        <v>-0.0001574841007823125</v>
+        <v>7.100996299413964E-05</v>
       </c>
       <c r="GS2">
-        <v>-0.1479867100715637</v>
+        <v>-0.1518398076295853</v>
       </c>
       <c r="GT2">
-        <v>0.0004761425079777837</v>
+        <v>0.002660268452018499</v>
       </c>
       <c r="GU2">
-        <v>0.004757322836667299</v>
+        <v>0.005260017700493336</v>
       </c>
       <c r="GV2">
-        <v>-0.01318724639713764</v>
+        <v>-0.01248715911060572</v>
       </c>
       <c r="GW2">
-        <v>0.01166888419538736</v>
+        <v>0.009530688636004925</v>
       </c>
       <c r="GX2">
-        <v>-0.0006278860964812338</v>
+        <v>-0.001565622864291072</v>
       </c>
       <c r="GY2">
-        <v>0.02508287690579891</v>
+        <v>0.02319954708218575</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PSU Bank.xlsx
+++ b/static/Models/Regression/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.01153897494077682</v>
+        <v>0.008634387515485287</v>
       </c>
       <c r="C2">
-        <v>0.0439736619591713</v>
+        <v>0.04721831530332565</v>
       </c>
       <c r="D2">
-        <v>-0.1377357691526413</v>
+        <v>-0.1341619491577148</v>
       </c>
       <c r="E2">
-        <v>-0.02614264748990536</v>
+        <v>-0.02523422054946423</v>
       </c>
       <c r="F2">
-        <v>0.0009461300214752555</v>
+        <v>0.004030456766486168</v>
       </c>
       <c r="G2">
-        <v>0.03159749507904053</v>
+        <v>0.03383313119411469</v>
       </c>
       <c r="H2">
-        <v>-0.01235484797507524</v>
+        <v>-0.01477887202054262</v>
       </c>
       <c r="I2">
-        <v>-0.01901175640523434</v>
+        <v>-0.01715072616934776</v>
       </c>
       <c r="J2">
-        <v>0.1293606907129288</v>
+        <v>0.1278808116912842</v>
       </c>
       <c r="K2">
-        <v>0.003237231634557247</v>
+        <v>0.0065917675383389</v>
       </c>
       <c r="L2">
-        <v>0.009827848523855209</v>
+        <v>0.003215705510228872</v>
       </c>
       <c r="M2">
-        <v>0.0003481401654426008</v>
+        <v>-0.00492971483618021</v>
       </c>
       <c r="N2">
-        <v>0.0003442242741584778</v>
+        <v>-0.001860142336227</v>
       </c>
       <c r="O2">
-        <v>0.1428303569555283</v>
+        <v>0.1444492787122726</v>
       </c>
       <c r="P2">
-        <v>-0.064744733273983</v>
+        <v>-0.06440868973731995</v>
       </c>
       <c r="Q2">
-        <v>0.06595341861248016</v>
+        <v>0.06739396601915359</v>
       </c>
       <c r="R2">
-        <v>0.01625391654670238</v>
+        <v>0.02008853852748871</v>
       </c>
       <c r="S2">
-        <v>-0.03907208517193794</v>
+        <v>-0.04077210277318954</v>
       </c>
       <c r="T2">
-        <v>-0.1134627163410187</v>
+        <v>-0.1111523509025574</v>
       </c>
       <c r="U2">
-        <v>-0.07899815589189529</v>
+        <v>-0.0839751809835434</v>
       </c>
       <c r="V2">
-        <v>0.006413755472749472</v>
+        <v>0.001740443054586649</v>
       </c>
       <c r="W2">
-        <v>-0.1188463568687439</v>
+        <v>-0.1127554029226303</v>
       </c>
       <c r="X2">
-        <v>0.003363986266776919</v>
+        <v>0.009000715799629688</v>
       </c>
       <c r="Y2">
-        <v>0.214877188205719</v>
+        <v>0.2195810228586197</v>
       </c>
       <c r="Z2">
-        <v>0.1030042842030525</v>
+        <v>0.1025991663336754</v>
       </c>
       <c r="AA2">
-        <v>-0.002237220760434866</v>
+        <v>-0.003553258720785379</v>
       </c>
       <c r="AB2">
-        <v>-0.01988002471625805</v>
+        <v>-0.02207832224667072</v>
       </c>
       <c r="AC2">
-        <v>0.002950439462438226</v>
+        <v>0.005620657000690699</v>
       </c>
       <c r="AD2">
-        <v>-0.100957527756691</v>
+        <v>-0.09922539442777634</v>
       </c>
       <c r="AE2">
-        <v>0.05731124058365822</v>
+        <v>0.05210333317518234</v>
       </c>
       <c r="AF2">
-        <v>0.003454789752140641</v>
+        <v>-0.003171698423102498</v>
       </c>
       <c r="AG2">
-        <v>-0.3207333087921143</v>
+        <v>-0.3238678276538849</v>
       </c>
       <c r="AH2">
-        <v>-0.4079739451408386</v>
+        <v>-0.4102692604064941</v>
       </c>
       <c r="AI2">
-        <v>-0.03726468235254288</v>
+        <v>-0.03851854056119919</v>
       </c>
       <c r="AJ2">
-        <v>0.005116990301758051</v>
+        <v>0.006219495087862015</v>
       </c>
       <c r="AK2">
-        <v>0.004010434728115797</v>
+        <v>0.006683748215436935</v>
       </c>
       <c r="AL2">
-        <v>0.007623187266290188</v>
+        <v>0.003301233751699328</v>
       </c>
       <c r="AM2">
-        <v>-0.1693102419376373</v>
+        <v>-0.1757668703794479</v>
       </c>
       <c r="AN2">
-        <v>-0.148124635219574</v>
+        <v>-0.1556996256113052</v>
       </c>
       <c r="AO2">
-        <v>-0.06828770041465759</v>
+        <v>-0.07565420120954514</v>
       </c>
       <c r="AP2">
-        <v>-0.01722651720046997</v>
+        <v>-0.01694401912391186</v>
       </c>
       <c r="AQ2">
-        <v>-0.00520967785269022</v>
+        <v>-0.003889882005751133</v>
       </c>
       <c r="AR2">
-        <v>0.1759129464626312</v>
+        <v>0.1769213378429413</v>
       </c>
       <c r="AS2">
-        <v>-0.09515198320150375</v>
+        <v>-0.09817454218864441</v>
       </c>
       <c r="AT2">
-        <v>0.1021331250667572</v>
+        <v>0.09930374473333359</v>
       </c>
       <c r="AU2">
-        <v>-0.0221425574272871</v>
+        <v>-0.02153200842440128</v>
       </c>
       <c r="AV2">
-        <v>0.03925028443336487</v>
+        <v>0.03782489523291588</v>
       </c>
       <c r="AW2">
-        <v>-0.01418952271342278</v>
+        <v>-0.01654436439275742</v>
       </c>
       <c r="AX2">
-        <v>-0.1049382612109184</v>
+        <v>-0.101572185754776</v>
       </c>
       <c r="AY2">
-        <v>-0.03920413926243782</v>
+        <v>-0.03885669261217117</v>
       </c>
       <c r="AZ2">
-        <v>-0.02138999104499817</v>
+        <v>-0.02170506864786148</v>
       </c>
       <c r="BA2">
-        <v>-0.09710656106472015</v>
+        <v>-0.09819968789815903</v>
       </c>
       <c r="BB2">
-        <v>-0.173120841383934</v>
+        <v>-0.1709134727716446</v>
       </c>
       <c r="BC2">
-        <v>3.329570972709917E-05</v>
+        <v>-0.001386403222568333</v>
       </c>
       <c r="BD2">
-        <v>-0.009159045293927193</v>
+        <v>-0.007427543867379427</v>
       </c>
       <c r="BE2">
-        <v>-0.004400435835123062</v>
+        <v>-0.004530997946858406</v>
       </c>
       <c r="BF2">
-        <v>-0.09705184400081635</v>
+        <v>-0.09497334808111191</v>
       </c>
       <c r="BG2">
-        <v>-0.0886833518743515</v>
+        <v>-0.08697827160358429</v>
       </c>
       <c r="BH2">
-        <v>-0.002841027453541756</v>
+        <v>-0.0009251766023226082</v>
       </c>
       <c r="BI2">
-        <v>0.0250734630972147</v>
+        <v>0.0258499514311552</v>
       </c>
       <c r="BJ2">
-        <v>-0.03518619015812874</v>
+        <v>-0.03217533603310585</v>
       </c>
       <c r="BK2">
-        <v>-0.002009142655879259</v>
+        <v>-0.006431847345083952</v>
       </c>
       <c r="BL2">
-        <v>0.03725341707468033</v>
+        <v>0.03564672544598579</v>
       </c>
       <c r="BM2">
-        <v>0.1077392250299454</v>
+        <v>0.1088736355304718</v>
       </c>
       <c r="BN2">
-        <v>-0.04385162889957428</v>
+        <v>-0.03806906938552856</v>
       </c>
       <c r="BO2">
-        <v>0.06406872719526291</v>
+        <v>0.06526757776737213</v>
       </c>
       <c r="BP2">
-        <v>0.01133476104587317</v>
+        <v>0.01122188474982977</v>
       </c>
       <c r="BQ2">
-        <v>-0.09727885574102402</v>
+        <v>-0.1001538708806038</v>
       </c>
       <c r="BR2">
-        <v>-0.01815451495349407</v>
+        <v>-0.01297290343791246</v>
       </c>
       <c r="BS2">
-        <v>-0.00163488183170557</v>
+        <v>-0.006432303693145514</v>
       </c>
       <c r="BT2">
-        <v>0.003535341704264283</v>
+        <v>0.003596679773181677</v>
       </c>
       <c r="BU2">
-        <v>0.02098161913454533</v>
+        <v>0.02246483042836189</v>
       </c>
       <c r="BV2">
-        <v>-0.1521338373422623</v>
+        <v>-0.15006223320961</v>
       </c>
       <c r="BW2">
-        <v>0.007076759357005358</v>
+        <v>0.00636202609166503</v>
       </c>
       <c r="BX2">
-        <v>-0.02103826217353344</v>
+        <v>-0.02393930219113827</v>
       </c>
       <c r="BY2">
-        <v>-0.0124763110652566</v>
+        <v>-0.00745916785672307</v>
       </c>
       <c r="BZ2">
-        <v>0.1264958828687668</v>
+        <v>0.1251721382141113</v>
       </c>
       <c r="CA2">
-        <v>0.008916544727981091</v>
+        <v>0.009003283455967903</v>
       </c>
       <c r="CB2">
-        <v>-0.001392404199577868</v>
+        <v>-0.006255974993109703</v>
       </c>
       <c r="CC2">
-        <v>-0.008378876373171806</v>
+        <v>-0.007082149386405945</v>
       </c>
       <c r="CD2">
-        <v>-0.002359062666073442</v>
+        <v>-0.008559681475162506</v>
       </c>
       <c r="CE2">
-        <v>-0.231260359287262</v>
+        <v>-0.2345523089170456</v>
       </c>
       <c r="CF2">
-        <v>-0.04005144163966179</v>
+        <v>-0.05113060399889946</v>
       </c>
       <c r="CG2">
-        <v>-0.2602680623531342</v>
+        <v>-0.258806049823761</v>
       </c>
       <c r="CH2">
-        <v>-0.0008035539649426937</v>
+        <v>0.006480271462351084</v>
       </c>
       <c r="CI2">
-        <v>0.1099416390061378</v>
+        <v>0.1103851199150085</v>
       </c>
       <c r="CJ2">
-        <v>-0.1158093437552452</v>
+        <v>-0.1150846481323242</v>
       </c>
       <c r="CK2">
-        <v>-0.01636038348078728</v>
+        <v>-0.01388573180884123</v>
       </c>
       <c r="CL2">
-        <v>0.001290492247790098</v>
+        <v>0.0009478520951233804</v>
       </c>
       <c r="CM2">
-        <v>0.06292214244604111</v>
+        <v>0.05361786112189293</v>
       </c>
       <c r="CN2">
-        <v>0.004271930083632469</v>
+        <v>0.004875896498560905</v>
       </c>
       <c r="CO2">
-        <v>-0.004779655952006578</v>
+        <v>-0.004455306101590395</v>
       </c>
       <c r="CP2">
-        <v>0.2386840134859085</v>
+        <v>0.2406446188688278</v>
       </c>
       <c r="CQ2">
-        <v>-0.1327798366546631</v>
+        <v>-0.1333522498607635</v>
       </c>
       <c r="CR2">
-        <v>0.01134724728763103</v>
+        <v>0.007120606489479542</v>
       </c>
       <c r="CS2">
-        <v>0.0003082515031564981</v>
+        <v>0.004379194229841232</v>
       </c>
       <c r="CT2">
-        <v>0.00883110798895359</v>
+        <v>0.0098069803789258</v>
       </c>
       <c r="CU2">
-        <v>-0.002108403481543064</v>
+        <v>-0.002138616051524878</v>
       </c>
       <c r="CV2">
-        <v>0.003374841995537281</v>
+        <v>0.006644806358963251</v>
       </c>
       <c r="CW2">
-        <v>-0.01739119924604893</v>
+        <v>-0.01573221012949944</v>
       </c>
       <c r="CX2">
-        <v>-0.006279156543314457</v>
+        <v>-0.003855561139062047</v>
       </c>
       <c r="CY2">
-        <v>0.03133551031351089</v>
+        <v>0.027921412140131</v>
       </c>
       <c r="CZ2">
-        <v>-0.0004790964594576508</v>
+        <v>-0.003284410806372762</v>
       </c>
       <c r="DA2">
-        <v>-0.07536956667900085</v>
+        <v>-0.07028065621852875</v>
       </c>
       <c r="DB2">
-        <v>-0.07351004332304001</v>
+        <v>-0.07199016958475113</v>
       </c>
       <c r="DC2">
-        <v>-0.01356056984513998</v>
+        <v>-0.007955830544233322</v>
       </c>
       <c r="DD2">
-        <v>0.2237107008695602</v>
+        <v>0.2204907238483429</v>
       </c>
       <c r="DE2">
-        <v>0.004182864911854267</v>
+        <v>0.007313964888453484</v>
       </c>
       <c r="DF2">
-        <v>0.126930832862854</v>
+        <v>0.1245734766125679</v>
       </c>
       <c r="DG2">
-        <v>0.004305529873818159</v>
+        <v>0.006336103193461895</v>
       </c>
       <c r="DH2">
-        <v>-0.10495525598526</v>
+        <v>-0.1059074252843857</v>
       </c>
       <c r="DI2">
-        <v>-0.01083593536168337</v>
+        <v>-0.01197463274002075</v>
       </c>
       <c r="DJ2">
-        <v>-0.07570058107376099</v>
+        <v>-0.07321511954069138</v>
       </c>
       <c r="DK2">
-        <v>-0.0536305196583271</v>
+        <v>-0.05242364481091499</v>
       </c>
       <c r="DL2">
-        <v>0.02105832286179066</v>
+        <v>0.01825191825628281</v>
       </c>
       <c r="DM2">
-        <v>0.04255295917391777</v>
+        <v>0.04400043934583664</v>
       </c>
       <c r="DN2">
-        <v>0.1136900335550308</v>
+        <v>0.1154031828045845</v>
       </c>
       <c r="DO2">
-        <v>0.04896209016442299</v>
+        <v>0.04395968094468117</v>
       </c>
       <c r="DP2">
-        <v>0.04095913842320442</v>
+        <v>0.03760458528995514</v>
       </c>
       <c r="DQ2">
-        <v>-0.004937207791954279</v>
+        <v>-0.00203846744261682</v>
       </c>
       <c r="DR2">
-        <v>-0.02369884960353374</v>
+        <v>-0.01681664399802685</v>
       </c>
       <c r="DS2">
-        <v>-0.2102090865373611</v>
+        <v>-0.2041104286909103</v>
       </c>
       <c r="DT2">
-        <v>-0.1021065935492516</v>
+        <v>-0.09761986136436462</v>
       </c>
       <c r="DU2">
-        <v>0.01158927939832211</v>
+        <v>0.01267636381089687</v>
       </c>
       <c r="DV2">
-        <v>0.005515685304999352</v>
+        <v>0.003037030808627605</v>
       </c>
       <c r="DW2">
-        <v>0.0007233813521452248</v>
+        <v>0.005343002267181873</v>
       </c>
       <c r="DX2">
-        <v>-0.04298672825098038</v>
+        <v>-0.04147700220346451</v>
       </c>
       <c r="DY2">
-        <v>0.03049909882247448</v>
+        <v>0.03118562325835228</v>
       </c>
       <c r="DZ2">
-        <v>-0.008710729889571667</v>
+        <v>-0.004547206219285727</v>
       </c>
       <c r="EA2">
-        <v>0.01089352183043957</v>
+        <v>0.01562399324029684</v>
       </c>
       <c r="EB2">
-        <v>-0.0309585090726614</v>
+        <v>-0.02991734631359577</v>
       </c>
       <c r="EC2">
-        <v>0.005348410457372665</v>
+        <v>0.007381998933851719</v>
       </c>
       <c r="ED2">
-        <v>0.03921979293227196</v>
+        <v>0.0416736789047718</v>
       </c>
       <c r="EE2">
-        <v>-0.03372255712747574</v>
+        <v>-0.03131577745079994</v>
       </c>
       <c r="EF2">
-        <v>0.09973376989364624</v>
+        <v>0.1002155095338821</v>
       </c>
       <c r="EG2">
-        <v>-0.07222328335046768</v>
+        <v>-0.0764446035027504</v>
       </c>
       <c r="EH2">
-        <v>-0.4078278541564941</v>
+        <v>-0.4154627323150635</v>
       </c>
       <c r="EI2">
-        <v>0.08789773285388947</v>
+        <v>0.08679630607366562</v>
       </c>
       <c r="EJ2">
-        <v>-0.1366813778877258</v>
+        <v>-0.1380625367164612</v>
       </c>
       <c r="EK2">
-        <v>-0.008739391341805458</v>
+        <v>-0.00827307440340519</v>
       </c>
       <c r="EL2">
-        <v>-0.005535137839615345</v>
+        <v>-0.004624780733138323</v>
       </c>
       <c r="EM2">
-        <v>-0.06586634367704391</v>
+        <v>-0.06497827172279358</v>
       </c>
       <c r="EN2">
-        <v>0.006792414002120495</v>
+        <v>0.005521679762750864</v>
       </c>
       <c r="EO2">
-        <v>-0.08998233824968338</v>
+        <v>-0.09293833374977112</v>
       </c>
       <c r="EP2">
-        <v>0.2011077702045441</v>
+        <v>0.1995837241411209</v>
       </c>
       <c r="EQ2">
-        <v>0.1143995523452759</v>
+        <v>0.1095707938075066</v>
       </c>
       <c r="ER2">
-        <v>-0.005375037901103497</v>
+        <v>-0.004669825546443462</v>
       </c>
       <c r="ES2">
-        <v>-0.07188162952661514</v>
+        <v>-0.07127126306295395</v>
       </c>
       <c r="ET2">
-        <v>-0.07051359117031097</v>
+        <v>-0.07071684300899506</v>
       </c>
       <c r="EU2">
-        <v>0.05588604509830475</v>
+        <v>0.05906780809164047</v>
       </c>
       <c r="EV2">
-        <v>0.1491361409425735</v>
+        <v>0.1522151678800583</v>
       </c>
       <c r="EW2">
-        <v>0.03678106144070625</v>
+        <v>0.03882639855146408</v>
       </c>
       <c r="EX2">
-        <v>-0.1936579942703247</v>
+        <v>-0.184842512011528</v>
       </c>
       <c r="EY2">
-        <v>-0.021420082077384</v>
+        <v>-0.01916835643351078</v>
       </c>
       <c r="EZ2">
-        <v>-0.08135128766298294</v>
+        <v>-0.07921309024095535</v>
       </c>
       <c r="FA2">
-        <v>0.0004471942083910108</v>
+        <v>-0.000437111739302054</v>
       </c>
       <c r="FB2">
-        <v>0.005811610259115696</v>
+        <v>0.008785020560026169</v>
       </c>
       <c r="FC2">
-        <v>-0.1167976781725883</v>
+        <v>-0.1191067919135094</v>
       </c>
       <c r="FD2">
-        <v>-0.01115348935127258</v>
+        <v>-0.01463528443127871</v>
       </c>
       <c r="FE2">
-        <v>-0.1004380583763123</v>
+        <v>-0.09364296495914459</v>
       </c>
       <c r="FF2">
-        <v>-0.2703443467617035</v>
+        <v>-0.2708730399608612</v>
       </c>
       <c r="FG2">
-        <v>-0.3816609680652618</v>
+        <v>-0.3785669207572937</v>
       </c>
       <c r="FH2">
-        <v>-0.007959196344017982</v>
+        <v>-0.007773480843752623</v>
       </c>
       <c r="FI2">
-        <v>0.09866190701723099</v>
+        <v>0.1050513461232185</v>
       </c>
       <c r="FJ2">
-        <v>0.06694109737873077</v>
+        <v>0.06283331662416458</v>
       </c>
       <c r="FK2">
-        <v>0.08354117721319199</v>
+        <v>0.08482712507247925</v>
       </c>
       <c r="FL2">
-        <v>0.0300716869533062</v>
+        <v>0.02669388614594936</v>
       </c>
       <c r="FM2">
-        <v>-0.007721033878624439</v>
+        <v>-0.006006423849612474</v>
       </c>
       <c r="FN2">
-        <v>-0.001789243659004569</v>
+        <v>-0.004232679028064013</v>
       </c>
       <c r="FO2">
-        <v>0.007316294591873884</v>
+        <v>0.00546558853238821</v>
       </c>
       <c r="FP2">
-        <v>0.01190370786935091</v>
+        <v>0.01361384708434343</v>
       </c>
       <c r="FQ2">
-        <v>0.0005694554420188069</v>
+        <v>0.001260609249584377</v>
       </c>
       <c r="FR2">
-        <v>0.009271477349102497</v>
+        <v>0.01208051294088364</v>
       </c>
       <c r="FS2">
-        <v>-0.0006027870695106685</v>
+        <v>0.0008780354401096702</v>
       </c>
       <c r="FT2">
-        <v>-0.0006818630499765277</v>
+        <v>2.74477915809257E-05</v>
       </c>
       <c r="FU2">
-        <v>0.04430113732814789</v>
+        <v>0.04649757593870163</v>
       </c>
       <c r="FV2">
-        <v>0.01163744740188122</v>
+        <v>0.01342612970620394</v>
       </c>
       <c r="FW2">
-        <v>0.002595979487523437</v>
+        <v>0.003860988887026906</v>
       </c>
       <c r="FX2">
-        <v>0.005706688854843378</v>
+        <v>0.008262925781309605</v>
       </c>
       <c r="FY2">
-        <v>0.001543459482491016</v>
+        <v>-0.004870237782597542</v>
       </c>
       <c r="FZ2">
-        <v>-0.006933979224413633</v>
+        <v>-0.009131164290010929</v>
       </c>
       <c r="GA2">
-        <v>-0.02321025729179382</v>
+        <v>-0.02792871184647083</v>
       </c>
       <c r="GB2">
-        <v>0.004076353739947081</v>
+        <v>0.005625890102237463</v>
       </c>
       <c r="GC2">
-        <v>-0.08348523825407028</v>
+        <v>-0.08813190460205078</v>
       </c>
       <c r="GD2">
-        <v>0.02092652767896652</v>
+        <v>0.02193037420511246</v>
       </c>
       <c r="GE2">
-        <v>0.006680384743958712</v>
+        <v>0.007377236150205135</v>
       </c>
       <c r="GF2">
-        <v>-0.03159098327159882</v>
+        <v>-0.04277114942669868</v>
       </c>
       <c r="GG2">
-        <v>-0.1410728543996811</v>
+        <v>-0.1383222341537476</v>
       </c>
       <c r="GH2">
-        <v>-0.0008606133633293211</v>
+        <v>-0.00741259939968586</v>
       </c>
       <c r="GI2">
-        <v>-0.1752048283815384</v>
+        <v>-0.1763085126876831</v>
       </c>
       <c r="GJ2">
-        <v>-0.01809108629822731</v>
+        <v>-0.004052409902215004</v>
       </c>
       <c r="GK2">
-        <v>-0.06604208797216415</v>
+        <v>-0.06519234925508499</v>
       </c>
       <c r="GL2">
-        <v>0.08333516120910645</v>
+        <v>0.08746329694986343</v>
       </c>
       <c r="GM2">
-        <v>-0.1899200081825256</v>
+        <v>-0.1895321756601334</v>
       </c>
       <c r="GN2">
-        <v>-0.08475163578987122</v>
+        <v>-0.08154136687517166</v>
       </c>
       <c r="GO2">
-        <v>0.01093783229589462</v>
+        <v>0.01074062846601009</v>
       </c>
       <c r="GP2">
-        <v>0.01772405207157135</v>
+        <v>0.01916813105344772</v>
       </c>
       <c r="GQ2">
-        <v>0.0004832236154470593</v>
+        <v>0.00173832627478987</v>
       </c>
       <c r="GR2">
-        <v>7.100996299413964E-05</v>
+        <v>0.001706680748611689</v>
       </c>
       <c r="GS2">
-        <v>-0.1518398076295853</v>
+        <v>-0.1481028199195862</v>
       </c>
       <c r="GT2">
-        <v>0.002660268452018499</v>
+        <v>0.001685507944785058</v>
       </c>
       <c r="GU2">
-        <v>0.005260017700493336</v>
+        <v>0.004453756846487522</v>
       </c>
       <c r="GV2">
-        <v>-0.01248715911060572</v>
+        <v>-0.007259223144501448</v>
       </c>
       <c r="GW2">
-        <v>0.009530688636004925</v>
+        <v>0.007204146590083838</v>
       </c>
       <c r="GX2">
-        <v>-0.001565622864291072</v>
+        <v>0.002682448597624898</v>
       </c>
       <c r="GY2">
-        <v>0.02319954708218575</v>
+        <v>0.02514092065393925</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PSU Bank.xlsx
+++ b/static/Models/Regression/Equation/PSU Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006757582304999232</v>
+        <v>0.005281087942421436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04669716209173203</v>
+        <v>0.04857778176665306</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1333992034196854</v>
+        <v>-0.1345266550779343</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02218358218669891</v>
+        <v>-0.01519957091659307</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01169394515454769</v>
+        <v>0.008113062009215355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03058154508471489</v>
+        <v>0.02278819493949413</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0164174847304821</v>
+        <v>-0.01548337657004595</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01634052395820618</v>
+        <v>-0.01823418028652668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1062373742461205</v>
+        <v>0.1034177169203758</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001259903190657496</v>
+        <v>0.01037414837628603</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.004872726276516914</v>
+        <v>-0.006910897325724363</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.00249398872256279</v>
+        <v>0.002262955298647285</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001544102124171332</v>
+        <v>-0.007611518725752831</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1472350209951401</v>
+        <v>0.1470830142498016</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.06891097873449326</v>
+        <v>-0.06863027065992355</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07177438586950302</v>
+        <v>0.06621493399143219</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01755759865045547</v>
+        <v>0.01472867839038372</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0436137393116951</v>
+        <v>-0.04400209337472916</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1070108711719513</v>
+        <v>-0.1088280230760574</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.08246944844722748</v>
+        <v>-0.07590553909540176</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.002496924018487334</v>
+        <v>-0.00765684898942709</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.118387795984745</v>
+        <v>-0.1220548748970032</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01310199778527021</v>
+        <v>0.008899291977286339</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2217537313699722</v>
+        <v>0.2186725288629532</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1081917360424995</v>
+        <v>0.1043489873409271</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.007995321415364742</v>
+        <v>-0.01336626801639795</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.01569260843098164</v>
+        <v>-0.01494408678263426</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.003049681428819895</v>
+        <v>-0.000367678701877594</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.09679656475782394</v>
+        <v>-0.09676563739776611</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05207305401563644</v>
+        <v>0.05123070254921913</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.005524054169654846</v>
+        <v>-0.005120469257235527</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.325966089963913</v>
+        <v>-0.3279634118080139</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.4193609952926636</v>
+        <v>-0.42442387342453</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.03255336731672287</v>
+        <v>-0.02395723201334476</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01682754792273045</v>
+        <v>0.01507617812603712</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001687898999080062</v>
+        <v>-0.004116327036172152</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001304137753322721</v>
+        <v>0.005289401393383741</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1713346242904663</v>
+        <v>-0.1708784252405167</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1624423265457153</v>
+        <v>-0.1671575009822845</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.07705876231193542</v>
+        <v>-0.0743887796998024</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0274182241410017</v>
+        <v>-0.02857973426580429</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.007648799102753401</v>
+        <v>-0.005769352428615093</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.182182252407074</v>
+        <v>0.1745079606771469</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1041676327586174</v>
+        <v>-0.104979932308197</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1047383323311806</v>
+        <v>0.1072056069970131</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02096847258508205</v>
+        <v>-0.01896826177835464</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.03204447031021118</v>
+        <v>0.03255007788538933</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01504785660654306</v>
+        <v>-0.01357808616012335</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.09589584916830063</v>
+        <v>-0.1038311123847961</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.04211419448256493</v>
+        <v>-0.04980956017971039</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.01535786781460047</v>
+        <v>-0.0100240632891655</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.09331315755844116</v>
+        <v>-0.09253367781639099</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1666813045740128</v>
+        <v>-0.1627052873373032</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.002268961863592267</v>
+        <v>-0.004071821458637714</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.005316824186593294</v>
+        <v>-0.003873604815453291</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.005609678104519844</v>
+        <v>0.001644119853153825</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.09075408428907394</v>
+        <v>-0.08804856985807419</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.08494859933853149</v>
+        <v>-0.08529219776391983</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0004825437790714204</v>
+        <v>0.005002771504223347</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.02807680517435074</v>
+        <v>0.0260624848306179</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02882346697151661</v>
+        <v>-0.02442499995231628</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.02245068922638893</v>
+        <v>-0.01847834885120392</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02624499425292015</v>
+        <v>0.02263424731791019</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1102183610200882</v>
+        <v>0.1143055260181427</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.04239830747246742</v>
+        <v>-0.04243241250514984</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05893814936280251</v>
+        <v>0.05656441673636436</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01344706024974585</v>
+        <v>0.01117406133562326</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.09589329361915588</v>
+        <v>-0.09674037247896194</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.005579920019954443</v>
+        <v>-0.006330408621579409</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.004023671615868807</v>
+        <v>-0.01068523526191711</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.00106235418934375</v>
+        <v>-0.006410493049770594</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02368449606001377</v>
+        <v>0.02004474774003029</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.152051717042923</v>
+        <v>-0.1559750437736511</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01353226322680712</v>
+        <v>0.01860566809773445</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.04544800147414207</v>
+        <v>-0.04833738505840302</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00705331563949585</v>
+        <v>-0.01080899126827717</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1065829023718834</v>
+        <v>0.1044896841049194</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.009574207477271557</v>
+        <v>0.01133244298398495</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.01256574783474207</v>
+        <v>-0.01290398836135864</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.005892551504075527</v>
+        <v>-0.005930088460445404</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01058860123157501</v>
+        <v>-0.01024309918284416</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.236726775765419</v>
+        <v>-0.2320493161678314</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.05331631004810333</v>
+        <v>-0.05792627483606339</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.2647429704666138</v>
+        <v>-0.2560407817363739</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.009048160165548325</v>
+        <v>0.01137976162135601</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.1124170199036598</v>
+        <v>0.1121145114302635</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.09067689627408981</v>
+        <v>-0.09075633436441422</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.01139654871076345</v>
+        <v>-0.01079761516302824</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0005937989335507154</v>
+        <v>-0.0001670983183430508</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.05227303132414818</v>
+        <v>0.04941515997052193</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.004152710549533367</v>
+        <v>0.001739592524245381</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.001091846846975386</v>
+        <v>0.0001477220648666844</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.2450171113014221</v>
+        <v>0.2395220547914505</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.1283442825078964</v>
+        <v>-0.1268670558929443</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.008790615014731884</v>
+        <v>0.001103693270124495</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.006729023531079292</v>
+        <v>0.006282612215727568</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0100043062120676</v>
+        <v>0.01007890235632658</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.003926848061382771</v>
+        <v>0.004190474282950163</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00645899772644043</v>
+        <v>0.005108198616653681</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0133573142811656</v>
+        <v>-0.008751937188208103</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.00293103139847517</v>
+        <v>-0.002756129251793027</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02852536924183369</v>
+        <v>0.03009301610291004</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.006560734007507563</v>
+        <v>-0.001318814582191408</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.07928856462240219</v>
+        <v>-0.0756988450884819</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.07033229619264603</v>
+        <v>-0.06757447123527527</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.008654422126710415</v>
+        <v>-0.01266670413315296</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2176256775856018</v>
+        <v>0.2146865576505661</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0100516714155674</v>
+        <v>0.008287972770631313</v>
       </c>
       <c r="DF2" t="n">
         <v>0.1161440536379814</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01030368451029062</v>
+        <v>0.01756058633327484</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.09965629130601883</v>
+        <v>-0.1036475002765656</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01450370438396931</v>
+        <v>-0.01434635557234287</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.07130387425422668</v>
+        <v>-0.06256720423698425</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05278981477022171</v>
+        <v>-0.05154372006654739</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01380256377160549</v>
+        <v>0.02100582234561443</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.05277437344193459</v>
+        <v>0.06011016294360161</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1171212643384933</v>
+        <v>0.1163395568728447</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.03473292663693428</v>
+        <v>0.03527641296386719</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02993209846317768</v>
+        <v>0.03469079360365868</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0009259916259907186</v>
+        <v>0.001337842317298055</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01352378167212009</v>
+        <v>-0.01978600956499577</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.2155429124832153</v>
+        <v>-0.2198470830917358</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1023196205496788</v>
+        <v>-0.1020672023296356</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.008466009981930256</v>
+        <v>0.01466909423470497</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001421541091986001</v>
+        <v>-0.005047297105193138</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004110947251319885</v>
+        <v>-0.0001334208354819566</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.03970532491803169</v>
+        <v>-0.03977246582508087</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04739558324217796</v>
+        <v>0.04796239733695984</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.003657668130472302</v>
+        <v>-0.006865021307021379</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0109280114993453</v>
+        <v>0.0006369753973558545</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.02771987393498421</v>
+        <v>-0.02732782997190952</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.003641123417764902</v>
+        <v>0.0005072791245765984</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.04546536505222321</v>
+        <v>0.04373074322938919</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.02886069379746914</v>
+        <v>-0.02953661978244781</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1064298003911972</v>
+        <v>0.09806147217750549</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0526258684694767</v>
+        <v>-0.05194040015339851</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.4153343439102173</v>
+        <v>-0.4086569249629974</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.07800966501235962</v>
+        <v>0.07399629056453705</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1307413130998611</v>
+        <v>-0.1370907425880432</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.007128374651074409</v>
+        <v>-0.007145699579268694</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.001675948384217918</v>
+        <v>-0.001443859422579408</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.06208239495754242</v>
+        <v>-0.05729388073086739</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.001408473239280283</v>
+        <v>0.001783900894224644</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.1027889475226402</v>
+        <v>-0.09275611490011215</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.2086933702230453</v>
+        <v>0.2028080523014069</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.1144746243953705</v>
+        <v>0.1126512214541435</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00349171063862741</v>
+        <v>-0.003993418533354998</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.07333864271640778</v>
+        <v>-0.06570108234882355</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.07449816912412643</v>
+        <v>-0.07148730754852295</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.05460519343614578</v>
+        <v>0.05884238332509995</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.1472977697849274</v>
+        <v>0.146389976143837</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.05021031200885773</v>
+        <v>0.04120674729347229</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1933154612779617</v>
+        <v>-0.1954954862594604</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01716866716742516</v>
+        <v>-0.01962692849338055</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.08139323443174362</v>
+        <v>-0.08279820531606674</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00400620186701417</v>
+        <v>0.01570385508239269</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01156822871416807</v>
+        <v>0.01034577656537294</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1130105331540108</v>
+        <v>-0.1194503679871559</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01769301854074001</v>
+        <v>-0.01604271307587624</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.101623147726059</v>
+        <v>-0.1027654260396957</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.280377060174942</v>
+        <v>-0.2808118462562561</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.3770082592964172</v>
+        <v>-0.3769673407077789</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01060877926647663</v>
+        <v>-0.008293408900499344</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.1009946018457413</v>
+        <v>0.0980457216501236</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.05966664478182793</v>
+        <v>0.06442976742982864</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.08166850358247757</v>
+        <v>0.07564055174589157</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0284923929721117</v>
+        <v>0.02663855254650116</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.001357891829684377</v>
+        <v>0.005368655547499657</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.01453141961246729</v>
+        <v>-0.02556638792157173</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.002221489325165749</v>
+        <v>0.00705239363014698</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02134590037167072</v>
+        <v>0.01179483160376549</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.004535791464149952</v>
+        <v>0.005274442490190268</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01526026614010334</v>
+        <v>0.01567273400723934</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001960967638297006</v>
+        <v>-0.0005642707110382617</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004283376969397068</v>
+        <v>0.002489342819899321</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.04918185994029045</v>
+        <v>0.04858595132827759</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01537850126624107</v>
+        <v>0.01444815006107092</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.006012453697621822</v>
+        <v>0.003012162400409579</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01088553853332996</v>
+        <v>0.01762853004038334</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.0009758964297361672</v>
+        <v>-0.005265535321086645</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.0005705422372557223</v>
+        <v>-0.0005310252890922129</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.03034631349146366</v>
+        <v>-0.03243618458509445</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.002553365426138043</v>
+        <v>-0.0007581620593555272</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.0834420844912529</v>
+        <v>-0.08269520848989487</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02466059103608131</v>
+        <v>0.02452619932591915</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.01033842097967863</v>
+        <v>0.01074401941150427</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.04203411936759949</v>
+        <v>-0.03554625064134598</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1400719583034515</v>
+        <v>-0.1338205635547638</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.006150430999696255</v>
+        <v>-0.01055856794118881</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1747826039791107</v>
+        <v>-0.1764023751020432</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.005056203342974186</v>
+        <v>-0.006218882743269205</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.06530248373746872</v>
+        <v>-0.07061086595058441</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.09398936480283737</v>
+        <v>0.0907432809472084</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.1861981600522995</v>
+        <v>-0.1921468824148178</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.07556292414665222</v>
+        <v>-0.06450112164020538</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.00698303384706378</v>
+        <v>0.01609370112419128</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.01974267326295376</v>
+        <v>0.01927237212657928</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.001221571699716151</v>
+        <v>0.003109659068286419</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.007302325218915939</v>
+        <v>-0.006464808713644743</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.1419200599193573</v>
+        <v>-0.148736834526062</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.004795294720679522</v>
+        <v>0.002817752072587609</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.002123248763382435</v>
+        <v>0.007375901099294424</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.009614705108106136</v>
+        <v>0.0004781604220625013</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.009664010256528854</v>
+        <v>0.007121228612959385</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.007512916345149279</v>
+        <v>0.004494838882237673</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.02763932384550571</v>
+        <v>0.02791446261107922</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PSU Bank.xlsx
+++ b/static/Models/Regression/Equation/PSU Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005281087942421436</v>
+        <v>0.009522096253931522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04857778176665306</v>
+        <v>0.04890181124210358</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1345266550779343</v>
+        <v>-0.1349917501211166</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01519957091659307</v>
+        <v>-0.009060018695890903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008113062009215355</v>
+        <v>0.01846608705818653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02278819493949413</v>
+        <v>0.01369044464081526</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01548337657004595</v>
+        <v>-0.006294175982475281</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01823418028652668</v>
+        <v>-0.01957147568464279</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1034177169203758</v>
+        <v>0.1017627567052841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01037414837628603</v>
+        <v>0.008891873992979527</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006910897325724363</v>
+        <v>-0.006583272945135832</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002262955298647285</v>
+        <v>0.004126924090087414</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.007611518725752831</v>
+        <v>-0.0028813979588449</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1470830142498016</v>
+        <v>0.1460473835468292</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.06863027065992355</v>
+        <v>-0.06936747580766678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06621493399143219</v>
+        <v>0.06516139209270477</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01472867839038372</v>
+        <v>0.01309012621641159</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04400209337472916</v>
+        <v>-0.04636602103710175</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1088280230760574</v>
+        <v>-0.1106330007314682</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.07590553909540176</v>
+        <v>-0.06860625743865967</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.00765684898942709</v>
+        <v>-0.00631296681240201</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1220548748970032</v>
+        <v>-0.1244113892316818</v>
       </c>
       <c r="X2" t="n">
-        <v>0.008899291977286339</v>
+        <v>0.007098586764186621</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2186725288629532</v>
+        <v>0.2178341150283813</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1043489873409271</v>
+        <v>0.1094804853200912</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.01336626801639795</v>
+        <v>-0.01187211740761995</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.01494408678263426</v>
+        <v>-0.01694372296333313</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.000367678701877594</v>
+        <v>-0.00156256603077054</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.09676563739776611</v>
+        <v>-0.09807376563549042</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05123070254921913</v>
+        <v>0.04837154969573021</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.005120469257235527</v>
+        <v>-0.006972240284085274</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3279634118080139</v>
+        <v>-0.3286104798316956</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.42442387342453</v>
+        <v>-0.4202055633068085</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02395723201334476</v>
+        <v>-0.02444927580654621</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01507617812603712</v>
+        <v>0.01126865018159151</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.004116327036172152</v>
+        <v>0.002229911042377353</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.005289401393383741</v>
+        <v>0.003963676281273365</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1708784252405167</v>
+        <v>-0.1730885207653046</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1671575009822845</v>
+        <v>-0.160625159740448</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.0743887796998024</v>
+        <v>-0.07463262975215912</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.02857973426580429</v>
+        <v>-0.02454195357859135</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.005769352428615093</v>
+        <v>-0.008209388703107834</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1745079606771469</v>
+        <v>0.1716865450143814</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.104979932308197</v>
+        <v>-0.09864553809165955</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1072056069970131</v>
+        <v>0.1046441346406937</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01896826177835464</v>
+        <v>-0.01659740693867207</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.03255007788538933</v>
+        <v>0.03416366502642632</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01357808616012335</v>
+        <v>-0.01271715760231018</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1038311123847961</v>
+        <v>-0.105913333594799</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.04980956017971039</v>
+        <v>-0.04891706630587578</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0100240632891655</v>
+        <v>-0.01161086838692427</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.09253367781639099</v>
+        <v>-0.0954025462269783</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1627052873373032</v>
+        <v>-0.1671337932348251</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.004071821458637714</v>
+        <v>-0.006736615672707558</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.003873604815453291</v>
+        <v>-0.004940199665725231</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.001644119853153825</v>
+        <v>-0.001624669181182981</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.08804856985807419</v>
+        <v>-0.09154890477657318</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.08529219776391983</v>
+        <v>-0.08670955896377563</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.005002771504223347</v>
+        <v>0.005589576903730631</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0260624848306179</v>
+        <v>0.02356989309191704</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02442499995231628</v>
+        <v>-0.02664237469434738</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01847834885120392</v>
+        <v>-0.01548036839812994</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02263424731791019</v>
+        <v>0.02610990591347218</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1143055260181427</v>
+        <v>0.1163320988416672</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.04243241250514984</v>
+        <v>-0.04067625105381012</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05656441673636436</v>
+        <v>0.05888914689421654</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01117406133562326</v>
+        <v>0.01775714010000229</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.09674037247896194</v>
+        <v>-0.09421718865633011</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.006330408621579409</v>
+        <v>-0.002882587257772684</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.01068523526191711</v>
+        <v>-0.01009338162839413</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.006410493049770594</v>
+        <v>-0.004957017954438925</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02004474774003029</v>
+        <v>0.0183445755392313</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1559750437736511</v>
+        <v>-0.1593330800533295</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01860566809773445</v>
+        <v>0.01713423244655132</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.04833738505840302</v>
+        <v>-0.05022704973816872</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01080899126827717</v>
+        <v>-0.01079995278269053</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1044896841049194</v>
+        <v>0.1031158640980721</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01133244298398495</v>
+        <v>0.01320967171341181</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.01290398836135864</v>
+        <v>-0.009061445482075214</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.005930088460445404</v>
+        <v>-0.007524824235588312</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01024309918284416</v>
+        <v>-0.008361621759831905</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.2320493161678314</v>
+        <v>-0.2320705652236938</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.05792627483606339</v>
+        <v>-0.05716598406434059</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.2560407817363739</v>
+        <v>-0.2545357346534729</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01137976162135601</v>
+        <v>0.0225270688533783</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.1121145114302635</v>
+        <v>0.1108375564217567</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.09075633436441422</v>
+        <v>-0.106994666159153</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.01079761516302824</v>
+        <v>-0.01185942348092794</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0001670983183430508</v>
+        <v>-0.001211162772960961</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.04941515997052193</v>
+        <v>0.05262100696563721</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001739592524245381</v>
+        <v>4.310474469093606e-05</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0001477220648666844</v>
+        <v>-0.002338256919756532</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.2395220547914505</v>
+        <v>0.238879457116127</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.1268670558929443</v>
+        <v>-0.1292387098073959</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001103693270124495</v>
+        <v>0.004650254268199205</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.006282612215727568</v>
+        <v>0.005472320131957531</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01007890235632658</v>
+        <v>0.008796847425401211</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.004190474282950163</v>
+        <v>0.00883133988827467</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.005108198616653681</v>
+        <v>0.005285752005875111</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.008751937188208103</v>
+        <v>-0.0096756462007761</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.002756129251793027</v>
+        <v>-0.005573035683482885</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.03009301610291004</v>
+        <v>0.03186308965086937</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001318814582191408</v>
+        <v>0.005498134065419436</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0756988450884819</v>
+        <v>-0.08276935666799545</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.06757447123527527</v>
+        <v>-0.06992451101541519</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.01266670413315296</v>
+        <v>-0.01161143928766251</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2146865576505661</v>
+        <v>0.2123072445392609</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.008287972770631313</v>
+        <v>0.007499202620238066</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.1161440536379814</v>
+        <v>0.1196188777685165</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01756058633327484</v>
+        <v>0.01052059419453144</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.1036475002765656</v>
+        <v>-0.1058313027024269</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01434635557234287</v>
+        <v>-0.01237566582858562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.06256720423698425</v>
+        <v>-0.06376200169324875</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05154372006654739</v>
+        <v>-0.05618617311120033</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.02100582234561443</v>
+        <v>0.02520552836358547</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.06011016294360161</v>
+        <v>0.05759545415639877</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1163395568728447</v>
+        <v>0.1147293895483017</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.03527641296386719</v>
+        <v>0.03426320478320122</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.03469079360365868</v>
+        <v>0.03764157369732857</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001337842317298055</v>
+        <v>0.0003298371157143265</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01978600956499577</v>
+        <v>-0.02127048932015896</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.2198470830917358</v>
+        <v>-0.2189525812864304</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1020672023296356</v>
+        <v>-0.09630735218524933</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01466909423470497</v>
+        <v>0.01590737886726856</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.005047297105193138</v>
+        <v>-0.0005018624942749739</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0001334208354819566</v>
+        <v>0.003477811580523849</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.03977246582508087</v>
+        <v>-0.04112731665372849</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04796239733695984</v>
+        <v>0.04749260097742081</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.006865021307021379</v>
+        <v>-0.00341394916176796</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0006369753973558545</v>
+        <v>-0.01241536810994148</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.02732782997190952</v>
+        <v>-0.02860734611749649</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0005072791245765984</v>
+        <v>0.005342275835573673</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.04373074322938919</v>
+        <v>0.04231156036257744</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.02953661978244781</v>
+        <v>-0.03060145862400532</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.09806147217750549</v>
+        <v>0.09534723311662674</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.05194040015339851</v>
+        <v>-0.0541670098900795</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.4086569249629974</v>
+        <v>-0.4125136733055115</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.07399629056453705</v>
+        <v>0.07217145711183548</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1370907425880432</v>
+        <v>-0.1392338126897812</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.007145699579268694</v>
+        <v>-0.008246039971709251</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.001443859422579408</v>
+        <v>-0.003826670348644257</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.05729388073086739</v>
+        <v>-0.050983015447855</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001783900894224644</v>
+        <v>0.003865559818223119</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.09275611490011215</v>
+        <v>-0.09208520501852036</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.2028080523014069</v>
+        <v>0.2004475146532059</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.1126512214541435</v>
+        <v>0.114507295191288</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.003993418533354998</v>
+        <v>-0.003692924277856946</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.06570108234882355</v>
+        <v>-0.07278250157833099</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.07148730754852295</v>
+        <v>-0.07167674601078033</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.05884238332509995</v>
+        <v>0.05915211513638496</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.146389976143837</v>
+        <v>0.1492704302072525</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.04120674729347229</v>
+        <v>0.04347771406173706</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1954954862594604</v>
+        <v>-0.1973590850830078</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01962692849338055</v>
+        <v>-0.02121959999203682</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.08279820531606674</v>
+        <v>-0.07890944927930832</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.01570385508239269</v>
+        <v>0.01430832128971815</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01034577656537294</v>
+        <v>0.009401684626936913</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1194503679871559</v>
+        <v>-0.1204364225268364</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01604271307587624</v>
+        <v>-0.009629975073039532</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.1027654260396957</v>
+        <v>-0.101390540599823</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.2808118462562561</v>
+        <v>-0.2767482995986938</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.3769673407077789</v>
+        <v>-0.3753283321857452</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.008293408900499344</v>
+        <v>-0.005114639177918434</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0980457216501236</v>
+        <v>0.104877769947052</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.06442976742982864</v>
+        <v>0.06291643530130386</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.07564055174589157</v>
+        <v>0.07433409988880157</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02663855254650116</v>
+        <v>0.03319463506340981</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.005368655547499657</v>
+        <v>0.002646001754328609</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02556638792157173</v>
+        <v>-0.02209157682955265</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00705239363014698</v>
+        <v>0.009336291812360287</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01179483160376549</v>
+        <v>0.01171453390270472</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.005274442490190268</v>
+        <v>0.002924812724813819</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01567273400723934</v>
+        <v>0.01484620664268732</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.0005642707110382617</v>
+        <v>-0.001741680782288313</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002489342819899321</v>
+        <v>-0.0002005351707339287</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.04858595132827759</v>
+        <v>0.04641155898571014</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01444815006107092</v>
+        <v>0.01301781367510557</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.003012162400409579</v>
+        <v>-0.0003260028024669737</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01762853004038334</v>
+        <v>0.01175966951996088</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.005265535321086645</v>
+        <v>0.004695072304457426</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.0005310252890922129</v>
+        <v>-0.001385360141284764</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.03243618458509445</v>
+        <v>-0.03449457883834839</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0007581620593555272</v>
+        <v>-0.001023767865262926</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.08269520848989487</v>
+        <v>-0.08263428509235382</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02452619932591915</v>
+        <v>0.02501530945301056</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.01074401941150427</v>
+        <v>0.008528477512300014</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.03554625064134598</v>
+        <v>-0.03910665586590767</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1338205635547638</v>
+        <v>-0.1371804177761078</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.01055856794118881</v>
+        <v>-0.01383490953594446</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1764023751020432</v>
+        <v>-0.174971342086792</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.006218882743269205</v>
+        <v>0.003357864683493972</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.07061086595058441</v>
+        <v>-0.07153701037168503</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.0907432809472084</v>
+        <v>0.09202518314123154</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.1921468824148178</v>
+        <v>-0.1937005072832108</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.06450112164020538</v>
+        <v>-0.06494244188070297</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.01609370112419128</v>
+        <v>0.01627883315086365</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.01927237212657928</v>
+        <v>0.01803301274776459</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.003109659068286419</v>
+        <v>0.001463680295273662</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.006464808713644743</v>
+        <v>-0.004635185468941927</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.148736834526062</v>
+        <v>-0.1505246013402939</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.002817752072587609</v>
+        <v>0.007251480128616095</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.007375901099294424</v>
+        <v>0.00961063988506794</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0004781604220625013</v>
+        <v>-0.003054138505831361</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.007121228612959385</v>
+        <v>0.00945743266493082</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.004494838882237673</v>
+        <v>0.002730967709794641</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.02791446261107922</v>
+        <v>0.02659215033054352</v>
       </c>
     </row>
   </sheetData>
